--- a/biology/Médecine/Muscle_splénius/Muscle_splénius.xlsx
+++ b/biology/Médecine/Muscle_splénius/Muscle_splénius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius</t>
+          <t>Muscle_splénius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle splénius est un muscle profond situé partie supérieure du dos, il comprend 2 parties : les muscles splénius de la tête et splénius du cou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius</t>
+          <t>Muscle_splénius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Muscle splénius de la tête</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine
 Moitié inférieure du bord postérieur du ligament nucal
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius</t>
+          <t>Muscle_splénius</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Muscle splénius du cou</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situation
 Sous le précédent.
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius</t>
+          <t>Muscle_splénius</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nerfs cervicaux (racines C1 à C4)
 </t>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius</t>
+          <t>Muscle_splénius</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un stabilisateur des jonctions cervico-thoraciques et du cardan occipital (occiput-C1).
 Entre ses deux chefs passe le muscle grand complexus. Le splénius passe juste sous le dentelé postérieur.
